--- a/data/trans_orig/RUIDO_1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_1-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91A1CFAB-93D5-44E6-B1E7-B8F9676E3CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF51E669-ED66-4244-B2D3-4BCBA8E97F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4086DA76-2C0D-40E0-BC1C-567F5EEBB20F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{160ED112-4518-48EA-B705-EC069C4AA106}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="326">
   <si>
     <t>Población según lo que estarían dispuestos a pagar para que en su municipio o lugar de residencia se redujera el ruido en 2023 (Tasa respuesta: 50,99%)</t>
   </si>
@@ -83,33 +83,33 @@
     <t>1,55%</t>
   </si>
   <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>50 €</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
     <t>6,53%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>50 €</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
     <t>40 €</t>
   </si>
   <si>
@@ -122,13 +122,13 @@
     <t>1,52%</t>
   </si>
   <si>
-    <t>7,52%</t>
+    <t>7,03%</t>
   </si>
   <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>4,24%</t>
+    <t>4,64%</t>
   </si>
   <si>
     <t>30 €</t>
@@ -140,883 +140,877 @@
     <t>5,93%</t>
   </si>
   <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>20 €</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>15 €</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>10 €</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>5 €</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>0 €*</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>20 €</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>15 €</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>10 €</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>5 €</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>0 €*</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
   </si>
   <si>
     <t>3,31%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
   </si>
   <si>
     <t>10,11%</t>
   </si>
   <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
+    <t>16,18%</t>
   </si>
   <si>
     <t>11,99%</t>
   </si>
   <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
   </si>
   <si>
     <t>75,1%</t>
   </si>
   <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
   </si>
   <si>
     <t>75,62%</t>
   </si>
   <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
   </si>
   <si>
     <t>75,34%</t>
   </si>
   <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1431,7 +1425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6F39E6-6183-4933-9F6C-32A78E06D107}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E2CB31-D5D2-4357-9F7D-C9FB51FA8D37}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1942,19 +1936,19 @@
         <v>768</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="7">
         <v>9</v>
@@ -1963,13 +1957,13 @@
         <v>3798</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -1978,13 +1972,13 @@
         <v>851</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -1993,19 +1987,19 @@
         <v>4650</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="7">
         <v>4</v>
@@ -2014,13 +2008,13 @@
         <v>1719</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -2029,13 +2023,13 @@
         <v>2655</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -2044,19 +2038,19 @@
         <v>4374</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="7">
         <v>35</v>
@@ -2065,13 +2059,13 @@
         <v>17364</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>46</v>
@@ -2080,13 +2074,13 @@
         <v>22954</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>81</v>
@@ -2095,13 +2089,13 @@
         <v>40319</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2116,13 +2110,13 @@
         <v>24973</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="7">
         <v>58</v>
@@ -2131,13 +2125,13 @@
         <v>29854</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M15" s="7">
         <v>110</v>
@@ -2146,18 +2140,18 @@
         <v>54827</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2169,13 +2163,13 @@
         <v>1823</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2190,7 +2184,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -2199,13 +2193,13 @@
         <v>1823</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2220,13 +2214,13 @@
         <v>658</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2235,13 +2229,13 @@
         <v>852</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -2250,13 +2244,13 @@
         <v>1510</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,7 +2271,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -2292,7 +2286,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -2307,7 +2301,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2328,7 +2322,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2343,7 +2337,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2358,7 +2352,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,13 +2367,13 @@
         <v>2066</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2394,7 +2388,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -2403,13 +2397,13 @@
         <v>2066</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,7 +2424,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2445,7 +2439,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -2460,7 +2454,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,7 +2490,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -2505,13 +2499,13 @@
         <v>2014</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,7 +2526,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -2541,13 +2535,13 @@
         <v>1100</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -2556,19 +2550,19 @@
         <v>1551</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="7">
         <v>9</v>
@@ -2577,13 +2571,13 @@
         <v>5478</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -2592,13 +2586,13 @@
         <v>2666</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M24" s="7">
         <v>14</v>
@@ -2607,19 +2601,19 @@
         <v>8143</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="7">
         <v>13</v>
@@ -2628,13 +2622,13 @@
         <v>6878</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="H25" s="7">
         <v>20</v>
@@ -2643,13 +2637,13 @@
         <v>10325</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M25" s="7">
         <v>33</v>
@@ -2658,19 +2652,19 @@
         <v>17203</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" s="7">
         <v>118</v>
@@ -2679,13 +2673,13 @@
         <v>75876</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H26" s="7">
         <v>97</v>
@@ -2694,13 +2688,13 @@
         <v>58626</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M26" s="7">
         <v>215</v>
@@ -2709,13 +2703,13 @@
         <v>134501</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2730,13 +2724,13 @@
         <v>93683</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="7">
         <v>127</v>
@@ -2745,13 +2739,13 @@
         <v>75129</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M27" s="7">
         <v>274</v>
@@ -2760,18 +2754,18 @@
         <v>168811</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2783,13 +2777,13 @@
         <v>1979</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -2798,13 +2792,13 @@
         <v>428</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -2813,13 +2807,13 @@
         <v>2407</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,7 +2834,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2855,7 +2849,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2870,7 +2864,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,13 +2879,13 @@
         <v>928</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2906,7 +2900,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -2915,13 +2909,13 @@
         <v>928</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,7 +2936,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2957,7 +2951,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2972,7 +2966,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,13 +2981,13 @@
         <v>888</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -3002,13 +2996,13 @@
         <v>703</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -3017,13 +3011,13 @@
         <v>1591</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,13 +3032,13 @@
         <v>1803</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
@@ -3053,13 +3047,13 @@
         <v>1685</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="M33" s="7">
         <v>4</v>
@@ -3068,13 +3062,13 @@
         <v>3488</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3089,13 +3083,13 @@
         <v>5875</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -3104,13 +3098,13 @@
         <v>2638</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M34" s="7">
         <v>9</v>
@@ -3119,13 +3113,13 @@
         <v>8513</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,13 +3134,13 @@
         <v>848</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -3155,13 +3149,13 @@
         <v>627</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -3170,19 +3164,19 @@
         <v>1475</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" s="7">
         <v>9</v>
@@ -3191,13 +3185,13 @@
         <v>8750</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H36" s="7">
         <v>7</v>
@@ -3206,13 +3200,13 @@
         <v>5410</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M36" s="7">
         <v>16</v>
@@ -3221,19 +3215,19 @@
         <v>14160</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" s="7">
         <v>15</v>
@@ -3242,13 +3236,13 @@
         <v>10716</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H37" s="7">
         <v>20</v>
@@ -3257,13 +3251,13 @@
         <v>14344</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M37" s="7">
         <v>35</v>
@@ -3272,19 +3266,19 @@
         <v>25060</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C38" s="7">
         <v>100</v>
@@ -3293,13 +3287,13 @@
         <v>81425</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H38" s="7">
         <v>79</v>
@@ -3308,13 +3302,13 @@
         <v>59287</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M38" s="7">
         <v>179</v>
@@ -3323,13 +3317,13 @@
         <v>140711</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,13 +3338,13 @@
         <v>113211</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="7">
         <v>114</v>
@@ -3359,13 +3353,13 @@
         <v>85123</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M39" s="7">
         <v>251</v>
@@ -3374,18 +3368,18 @@
         <v>198334</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3403,7 +3397,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -3412,13 +3406,13 @@
         <v>734</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>201</v>
+        <v>141</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -3427,13 +3421,13 @@
         <v>734</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3442,13 @@
         <v>822</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -3463,13 +3457,13 @@
         <v>734</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
@@ -3478,13 +3472,13 @@
         <v>1556</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,7 +3499,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -3520,7 +3514,7 @@
         <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -3535,7 +3529,7 @@
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,7 +3550,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -3565,13 +3559,13 @@
         <v>398</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
@@ -3580,13 +3574,13 @@
         <v>398</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,13 +3595,13 @@
         <v>931</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>212</v>
+        <v>13</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -3616,13 +3610,13 @@
         <v>749</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
@@ -3631,13 +3625,13 @@
         <v>1679</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,13 +3646,13 @@
         <v>1790</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -3673,7 +3667,7 @@
         <v>12</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M45" s="7">
         <v>2</v>
@@ -3682,13 +3676,13 @@
         <v>1790</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,13 +3697,13 @@
         <v>3273</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
@@ -3718,13 +3712,13 @@
         <v>3208</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>170</v>
+        <v>225</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M46" s="7">
         <v>6</v>
@@ -3733,13 +3727,13 @@
         <v>6481</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>225</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,13 +3748,13 @@
         <v>1887</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H47" s="7">
         <v>3</v>
@@ -3769,13 +3763,13 @@
         <v>1868</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M47" s="7">
         <v>6</v>
@@ -3784,19 +3778,19 @@
         <v>3755</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" s="7">
         <v>5</v>
@@ -3805,13 +3799,13 @@
         <v>3947</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>15</v>
+        <v>239</v>
       </c>
       <c r="H48" s="7">
         <v>10</v>
@@ -3820,13 +3814,13 @@
         <v>6873</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>236</v>
+        <v>50</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M48" s="7">
         <v>15</v>
@@ -3835,19 +3829,19 @@
         <v>10820</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>240</v>
+        <v>94</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C49" s="7">
         <v>31</v>
@@ -3856,13 +3850,13 @@
         <v>22537</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H49" s="7">
         <v>20</v>
@@ -3871,13 +3865,13 @@
         <v>13233</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M49" s="7">
         <v>51</v>
@@ -3886,19 +3880,19 @@
         <v>35770</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C50" s="7">
         <v>129</v>
@@ -3907,13 +3901,13 @@
         <v>104022</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H50" s="7">
         <v>129</v>
@@ -3922,13 +3916,13 @@
         <v>98111</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M50" s="7">
         <v>258</v>
@@ -3937,13 +3931,13 @@
         <v>202133</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3958,13 +3952,13 @@
         <v>139210</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="7">
         <v>169</v>
@@ -3973,13 +3967,13 @@
         <v>125908</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M51" s="7">
         <v>344</v>
@@ -3988,13 +3982,13 @@
         <v>265118</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,13 +4005,13 @@
         <v>3802</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>170</v>
+        <v>264</v>
       </c>
       <c r="H52" s="7">
         <v>3</v>
@@ -4026,13 +4020,13 @@
         <v>1624</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>264</v>
+        <v>14</v>
       </c>
       <c r="M52" s="7">
         <v>7</v>
@@ -4041,13 +4035,13 @@
         <v>5426</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,13 +4056,13 @@
         <v>2215</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>25</v>
+        <v>272</v>
       </c>
       <c r="H53" s="7">
         <v>2</v>
@@ -4077,13 +4071,13 @@
         <v>1586</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>270</v>
+        <v>156</v>
       </c>
       <c r="M53" s="7">
         <v>5</v>
@@ -4092,13 +4086,13 @@
         <v>3800</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,13 +4107,13 @@
         <v>928</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -4134,7 +4128,7 @@
         <v>12</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="M54" s="7">
         <v>1</v>
@@ -4143,13 +4137,13 @@
         <v>928</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4170,7 +4164,7 @@
         <v>11</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="H55" s="7">
         <v>1</v>
@@ -4179,13 +4173,13 @@
         <v>398</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>280</v>
+        <v>223</v>
       </c>
       <c r="M55" s="7">
         <v>2</v>
@@ -4194,13 +4188,13 @@
         <v>779</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,13 +4209,13 @@
         <v>3885</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>224</v>
+        <v>281</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H56" s="7">
         <v>2</v>
@@ -4230,13 +4224,13 @@
         <v>1452</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>154</v>
+        <v>235</v>
       </c>
       <c r="M56" s="7">
         <v>6</v>
@@ -4245,13 +4239,13 @@
         <v>5337</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>102</v>
+        <v>211</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,10 +4263,10 @@
         <v>285</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>287</v>
+        <v>151</v>
       </c>
       <c r="H57" s="7">
         <v>5</v>
@@ -4281,13 +4275,13 @@
         <v>3456</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>175</v>
+        <v>287</v>
       </c>
       <c r="M57" s="7">
         <v>9</v>
@@ -4296,13 +4290,13 @@
         <v>7050</v>
       </c>
       <c r="O57" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q57" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P57" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q57" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,7 +4314,7 @@
         <v>289</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>50</v>
+        <v>205</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>290</v>
@@ -4335,7 +4329,7 @@
         <v>291</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="L58" s="7" t="s">
         <v>292</v>
@@ -4347,13 +4341,13 @@
         <v>18378</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>110</v>
+        <v>282</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4368,13 +4362,13 @@
         <v>3574</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>294</v>
+        <v>228</v>
       </c>
       <c r="F59" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G59" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H59" s="7">
         <v>7</v>
@@ -4383,13 +4377,13 @@
         <v>3975</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>271</v>
+        <v>203</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="M59" s="7">
         <v>13</v>
@@ -4398,19 +4392,19 @@
         <v>7549</v>
       </c>
       <c r="O59" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P59" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="P59" s="7" t="s">
+      <c r="Q59" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="Q59" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C60" s="7">
         <v>32</v>
@@ -4419,13 +4413,13 @@
         <v>21973</v>
       </c>
       <c r="E60" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F60" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="G60" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H60" s="7">
         <v>23</v>
@@ -4434,13 +4428,13 @@
         <v>15800</v>
       </c>
       <c r="J60" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K60" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="K60" s="7" t="s">
-        <v>305</v>
-      </c>
       <c r="L60" s="7" t="s">
-        <v>306</v>
+        <v>119</v>
       </c>
       <c r="M60" s="7">
         <v>55</v>
@@ -4449,19 +4443,19 @@
         <v>37773</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>308</v>
+        <v>242</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>222</v>
+        <v>306</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C61" s="7">
         <v>63</v>
@@ -4470,13 +4464,13 @@
         <v>41850</v>
       </c>
       <c r="E61" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G61" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H61" s="7">
         <v>65</v>
@@ -4485,13 +4479,13 @@
         <v>40557</v>
       </c>
       <c r="J61" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L61" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L61" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M61" s="7">
         <v>128</v>
@@ -4500,19 +4494,19 @@
         <v>82407</v>
       </c>
       <c r="O61" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P61" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q61" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="P61" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q61" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C62" s="7">
         <v>382</v>
@@ -4521,13 +4515,13 @@
         <v>278687</v>
       </c>
       <c r="E62" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G62" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H62" s="7">
         <v>351</v>
@@ -4536,13 +4530,13 @@
         <v>238977</v>
       </c>
       <c r="J62" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L62" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L62" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M62" s="7">
         <v>733</v>
@@ -4551,13 +4545,13 @@
         <v>517663</v>
       </c>
       <c r="O62" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P62" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q62" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="P62" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q62" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,13 +4566,13 @@
         <v>371077</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="7">
         <v>468</v>
@@ -4587,13 +4581,13 @@
         <v>316014</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M63" s="7">
         <v>979</v>
@@ -4602,18 +4596,18 @@
         <v>687090</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/RUIDO_1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_1-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF51E669-ED66-4244-B2D3-4BCBA8E97F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20310AD5-004A-485F-AD29-2B12083D6388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{160ED112-4518-48EA-B705-EC069C4AA106}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{33CBA965-150D-49D9-8092-130DC4B69441}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="323">
   <si>
     <t>Población según lo que estarían dispuestos a pagar para que en su municipio o lugar de residencia se redujera el ruido en 2023 (Tasa respuesta: 50,99%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,946 +71,937 @@
     <t>Más de 50€</t>
   </si>
   <si>
+    <t>1,54%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>11,16%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
     <t>3,61%</t>
   </si>
   <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>50 €</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>40 €</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>35 €</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>30 €</t>
+  </si>
+  <si>
+    <t>25 €</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>20 €</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>15 €</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>10 €</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>5 €</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>0 €*</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>50 €</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>40 €</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>35 €</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>30 €</t>
-  </si>
-  <si>
-    <t>25 €</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>20 €</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
   </si>
   <si>
     <t>2,36%</t>
   </si>
   <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>15 €</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>10 €</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>5 €</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>0 €*</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
   </si>
   <si>
     <t>7,14%</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1425,7 +1416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E2CB31-D5D2-4357-9F7D-C9FB51FA8D37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF57D768-305A-4346-AC16-8BE812F78FCA}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1543,10 +1534,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1558,16 +1549,16 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>461</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -1582,7 +1573,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>17</v>
@@ -1594,28 +1585,28 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
-        <v>734</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="I5" s="7">
+        <v>766</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
@@ -1627,13 +1618,13 @@
         <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>734</v>
+        <v>766</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -1651,13 +1642,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1666,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -1681,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>25</v>
@@ -1696,46 +1687,46 @@
         <v>26</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
-        <v>380</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="I7" s="7">
+        <v>390</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>30</v>
@@ -1753,13 +1744,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1768,13 +1759,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1783,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>25</v>
@@ -1798,40 +1789,40 @@
         <v>32</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>1747</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="H9" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>1771</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
       </c>
       <c r="N9" s="7">
-        <v>1771</v>
+        <v>1747</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>36</v>
@@ -1852,13 +1843,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>590</v>
+        <v>785</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>41</v>
@@ -1867,13 +1858,13 @@
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>781</v>
+        <v>630</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>42</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>43</v>
@@ -1882,13 +1873,13 @@
         <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>1370</v>
+        <v>1414</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>44</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>45</v>
@@ -1903,199 +1894,199 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>854</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="7">
         <v>9</v>
       </c>
-      <c r="D12" s="7">
-        <v>3798</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
       <c r="I12" s="7">
-        <v>851</v>
+        <v>3857</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
       </c>
       <c r="N12" s="7">
-        <v>4650</v>
+        <v>4712</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C13" s="7">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2542</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="7">
         <v>4</v>
       </c>
-      <c r="D13" s="7">
-        <v>1719</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
       <c r="I13" s="7">
-        <v>2655</v>
+        <v>1748</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>4374</v>
+        <v>4290</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C14" s="7">
+        <v>46</v>
+      </c>
+      <c r="D14" s="7">
+        <v>23177</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="7">
         <v>35</v>
       </c>
-      <c r="D14" s="7">
-        <v>17364</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="7">
-        <v>46</v>
-      </c>
       <c r="I14" s="7">
-        <v>22954</v>
+        <v>18421</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>81</v>
       </c>
       <c r="N14" s="7">
-        <v>40319</v>
+        <v>41597</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2104,102 +2095,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>58</v>
+      </c>
+      <c r="D15" s="7">
+        <v>29947</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="7">
         <v>52</v>
       </c>
-      <c r="D15" s="7">
-        <v>24973</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="7">
-        <v>58</v>
-      </c>
       <c r="I15" s="7">
-        <v>29854</v>
+        <v>26208</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M15" s="7">
         <v>110</v>
       </c>
       <c r="N15" s="7">
-        <v>54827</v>
+        <v>56154</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="7">
         <v>2</v>
       </c>
-      <c r="D16" s="7">
-        <v>1823</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>1922</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>1823</v>
+        <v>1922</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2211,46 +2202,46 @@
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>658</v>
+        <v>822</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>852</v>
+        <v>698</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>1510</v>
+        <v>1520</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2265,13 +2256,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -2280,13 +2271,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -2295,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2316,13 +2307,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2331,13 +2322,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2346,13 +2337,13 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2361,49 +2352,49 @@
         <v>31</v>
       </c>
       <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="7">
         <v>2</v>
       </c>
-      <c r="D20" s="7">
-        <v>2066</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>2529</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>2066</v>
+        <v>2529</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,13 +2409,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2433,13 +2424,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -2448,13 +2439,13 @@
         <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,49 +2454,49 @@
         <v>39</v>
       </c>
       <c r="C22" s="7">
+        <v>2</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1546</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" s="7">
         <v>1</v>
       </c>
-      <c r="D22" s="7">
-        <v>453</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" s="7">
-        <v>2</v>
-      </c>
       <c r="I22" s="7">
-        <v>1561</v>
+        <v>464</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
       </c>
       <c r="N22" s="7">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,97 +2505,97 @@
         <v>46</v>
       </c>
       <c r="C23" s="7">
+        <v>2</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1223</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="7">
         <v>1</v>
       </c>
-      <c r="D23" s="7">
-        <v>451</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H23" s="7">
-        <v>2</v>
-      </c>
       <c r="I23" s="7">
-        <v>1100</v>
+        <v>470</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
       </c>
       <c r="N23" s="7">
-        <v>1551</v>
+        <v>1694</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C24" s="7">
+        <v>5</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2646</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24" s="7">
         <v>9</v>
       </c>
-      <c r="D24" s="7">
-        <v>5478</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H24" s="7">
-        <v>5</v>
-      </c>
       <c r="I24" s="7">
-        <v>2666</v>
+        <v>5998</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M24" s="7">
         <v>14</v>
       </c>
       <c r="N24" s="7">
-        <v>8143</v>
+        <v>8644</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>118</v>
@@ -2613,13 +2604,13 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C25" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D25" s="7">
-        <v>6878</v>
+        <v>9982</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>119</v>
@@ -2631,10 +2622,10 @@
         <v>121</v>
       </c>
       <c r="H25" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I25" s="7">
-        <v>10325</v>
+        <v>6958</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>122</v>
@@ -2649,7 +2640,7 @@
         <v>33</v>
       </c>
       <c r="N25" s="7">
-        <v>17203</v>
+        <v>16941</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>125</v>
@@ -2664,13 +2655,13 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C26" s="7">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="D26" s="7">
-        <v>75876</v>
+        <v>58355</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>128</v>
@@ -2682,10 +2673,10 @@
         <v>130</v>
       </c>
       <c r="H26" s="7">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="I26" s="7">
-        <v>58626</v>
+        <v>78805</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>131</v>
@@ -2700,7 +2691,7 @@
         <v>215</v>
       </c>
       <c r="N26" s="7">
-        <v>134501</v>
+        <v>137160</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>134</v>
@@ -2718,49 +2709,49 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>127</v>
+      </c>
+      <c r="D27" s="7">
+        <v>74574</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" s="7">
         <v>147</v>
       </c>
-      <c r="D27" s="7">
-        <v>93683</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H27" s="7">
-        <v>127</v>
-      </c>
       <c r="I27" s="7">
-        <v>75129</v>
+        <v>97845</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M27" s="7">
         <v>274</v>
       </c>
       <c r="N27" s="7">
-        <v>168811</v>
+        <v>172419</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,31 +2762,31 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>1979</v>
+        <v>422</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>138</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>139</v>
       </c>
       <c r="H28" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" s="7">
-        <v>428</v>
+        <v>2105</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>140</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>141</v>
@@ -2804,16 +2795,16 @@
         <v>3</v>
       </c>
       <c r="N28" s="7">
-        <v>2407</v>
+        <v>2526</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,13 +2819,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2843,13 +2834,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2858,13 +2849,13 @@
         <v>0</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>147</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,28 +2864,28 @@
         <v>24</v>
       </c>
       <c r="C30" s="7">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H30" s="7">
         <v>1</v>
       </c>
-      <c r="D30" s="7">
-        <v>928</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
       <c r="I30" s="7">
-        <v>0</v>
+        <v>975</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>12</v>
@@ -2906,16 +2897,16 @@
         <v>1</v>
       </c>
       <c r="N30" s="7">
-        <v>928</v>
+        <v>975</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2945,13 +2936,13 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2960,13 +2951,13 @@
         <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>147</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,46 +2969,46 @@
         <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>888</v>
+        <v>810</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>703</v>
+        <v>937</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
       </c>
       <c r="N32" s="7">
-        <v>1591</v>
+        <v>1748</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>42</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,46 +3020,46 @@
         <v>2</v>
       </c>
       <c r="D33" s="7">
-        <v>1803</v>
+        <v>1661</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
       </c>
       <c r="I33" s="7">
-        <v>1685</v>
+        <v>1887</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M33" s="7">
         <v>4</v>
       </c>
       <c r="N33" s="7">
-        <v>3488</v>
+        <v>3547</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>161</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3077,49 +3068,49 @@
         <v>39</v>
       </c>
       <c r="C34" s="7">
+        <v>3</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2594</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H34" s="7">
         <v>6</v>
       </c>
-      <c r="D34" s="7">
-        <v>5875</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G34" s="7" t="s">
+      <c r="I34" s="7">
+        <v>6810</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="H34" s="7">
-        <v>3</v>
-      </c>
-      <c r="I34" s="7">
-        <v>2638</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="K34" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M34" s="7">
         <v>9</v>
       </c>
       <c r="N34" s="7">
-        <v>8513</v>
+        <v>9404</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,199 +3122,199 @@
         <v>1</v>
       </c>
       <c r="D35" s="7">
-        <v>848</v>
+        <v>697</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
       </c>
       <c r="I35" s="7">
-        <v>627</v>
+        <v>911</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
       </c>
       <c r="N35" s="7">
-        <v>1475</v>
+        <v>1608</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C36" s="7">
+        <v>7</v>
+      </c>
+      <c r="D36" s="7">
+        <v>5544</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H36" s="7">
         <v>9</v>
       </c>
-      <c r="D36" s="7">
-        <v>8750</v>
-      </c>
-      <c r="E36" s="7" t="s">
+      <c r="I36" s="7">
+        <v>9469</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H36" s="7">
-        <v>7</v>
-      </c>
-      <c r="I36" s="7">
-        <v>5410</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M36" s="7">
         <v>16</v>
       </c>
       <c r="N36" s="7">
-        <v>14160</v>
+        <v>15013</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C37" s="7">
+        <v>20</v>
+      </c>
+      <c r="D37" s="7">
+        <v>13366</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H37" s="7">
         <v>15</v>
       </c>
-      <c r="D37" s="7">
-        <v>10716</v>
-      </c>
-      <c r="E37" s="7" t="s">
+      <c r="I37" s="7">
+        <v>10833</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H37" s="7">
-        <v>20</v>
-      </c>
-      <c r="I37" s="7">
-        <v>14344</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M37" s="7">
         <v>35</v>
       </c>
       <c r="N37" s="7">
-        <v>25060</v>
+        <v>24199</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C38" s="7">
+        <v>79</v>
+      </c>
+      <c r="D38" s="7">
+        <v>59226</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H38" s="7">
         <v>100</v>
       </c>
-      <c r="D38" s="7">
-        <v>81425</v>
-      </c>
-      <c r="E38" s="7" t="s">
+      <c r="I38" s="7">
+        <v>83954</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H38" s="7">
-        <v>79</v>
-      </c>
-      <c r="I38" s="7">
-        <v>59287</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M38" s="7">
         <v>179</v>
       </c>
       <c r="N38" s="7">
-        <v>140711</v>
+        <v>143179</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,102 +3323,102 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
+        <v>114</v>
+      </c>
+      <c r="D39" s="7">
+        <v>84320</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H39" s="7">
         <v>137</v>
       </c>
-      <c r="D39" s="7">
-        <v>113211</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H39" s="7">
-        <v>114</v>
-      </c>
       <c r="I39" s="7">
-        <v>85123</v>
+        <v>117881</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M39" s="7">
         <v>251</v>
       </c>
       <c r="N39" s="7">
-        <v>198334</v>
+        <v>202200</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="7">
-        <v>0</v>
+        <v>716</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H40" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="7">
-        <v>734</v>
+        <v>0</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
       </c>
       <c r="N40" s="7">
-        <v>734</v>
+        <v>716</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,46 +3430,46 @@
         <v>1</v>
       </c>
       <c r="D41" s="7">
-        <v>822</v>
+        <v>716</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
       </c>
       <c r="I41" s="7">
-        <v>734</v>
+        <v>853</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
       </c>
       <c r="N41" s="7">
-        <v>1556</v>
+        <v>1569</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,13 +3484,13 @@
         <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -3508,13 +3499,13 @@
         <v>0</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -3523,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,49 +3529,49 @@
         <v>26</v>
       </c>
       <c r="C43" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="7">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>11</v>
+        <v>207</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="H43" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" s="7">
-        <v>398</v>
+        <v>0</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>211</v>
+        <v>12</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
       </c>
       <c r="N43" s="7">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>155</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,46 +3583,46 @@
         <v>1</v>
       </c>
       <c r="D44" s="7">
-        <v>931</v>
+        <v>736</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
       </c>
       <c r="I44" s="7">
-        <v>749</v>
+        <v>963</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
       </c>
       <c r="N44" s="7">
-        <v>1679</v>
+        <v>1699</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,49 +3631,49 @@
         <v>32</v>
       </c>
       <c r="C45" s="7">
+        <v>0</v>
+      </c>
+      <c r="D45" s="7">
+        <v>0</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H45" s="7">
         <v>2</v>
       </c>
-      <c r="D45" s="7">
-        <v>1790</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H45" s="7">
-        <v>0</v>
-      </c>
       <c r="I45" s="7">
-        <v>0</v>
+        <v>1833</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="M45" s="7">
         <v>2</v>
       </c>
       <c r="N45" s="7">
-        <v>1790</v>
+        <v>1833</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,46 +3685,46 @@
         <v>3</v>
       </c>
       <c r="D46" s="7">
-        <v>3273</v>
+        <v>3145</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
       </c>
       <c r="I46" s="7">
-        <v>3208</v>
+        <v>3502</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M46" s="7">
         <v>6</v>
       </c>
       <c r="N46" s="7">
-        <v>6481</v>
+        <v>6647</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>107</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,199 +3736,199 @@
         <v>3</v>
       </c>
       <c r="D47" s="7">
-        <v>1887</v>
+        <v>1780</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>229</v>
+        <v>113</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H47" s="7">
         <v>3</v>
       </c>
       <c r="I47" s="7">
-        <v>1868</v>
+        <v>2273</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M47" s="7">
         <v>6</v>
       </c>
       <c r="N47" s="7">
-        <v>3755</v>
+        <v>4053</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C48" s="7">
+        <v>10</v>
+      </c>
+      <c r="D48" s="7">
+        <v>6886</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H48" s="7">
         <v>5</v>
       </c>
-      <c r="D48" s="7">
-        <v>3947</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="H48" s="7">
-        <v>10</v>
-      </c>
       <c r="I48" s="7">
-        <v>6873</v>
+        <v>4111</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M48" s="7">
         <v>15</v>
       </c>
       <c r="N48" s="7">
-        <v>10820</v>
+        <v>10997</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>94</v>
+        <v>238</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C49" s="7">
+        <v>20</v>
+      </c>
+      <c r="D49" s="7">
+        <v>12398</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H49" s="7">
         <v>31</v>
       </c>
-      <c r="D49" s="7">
-        <v>22537</v>
-      </c>
-      <c r="E49" s="7" t="s">
+      <c r="I49" s="7">
+        <v>23566</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="L49" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H49" s="7">
-        <v>20</v>
-      </c>
-      <c r="I49" s="7">
-        <v>13233</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M49" s="7">
         <v>51</v>
       </c>
       <c r="N49" s="7">
-        <v>35770</v>
+        <v>35964</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C50" s="7">
         <v>129</v>
       </c>
       <c r="D50" s="7">
-        <v>104022</v>
+        <v>115919</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H50" s="7">
         <v>129</v>
       </c>
       <c r="I50" s="7">
-        <v>98111</v>
+        <v>107115</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M50" s="7">
         <v>258</v>
       </c>
       <c r="N50" s="7">
-        <v>202133</v>
+        <v>223034</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,49 +3937,49 @@
         <v>3</v>
       </c>
       <c r="C51" s="7">
+        <v>169</v>
+      </c>
+      <c r="D51" s="7">
+        <v>142702</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H51" s="7">
         <v>175</v>
       </c>
-      <c r="D51" s="7">
-        <v>139210</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H51" s="7">
-        <v>169</v>
-      </c>
       <c r="I51" s="7">
-        <v>125908</v>
+        <v>144216</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M51" s="7">
         <v>344</v>
       </c>
       <c r="N51" s="7">
-        <v>265118</v>
+        <v>286918</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,49 +3990,49 @@
         <v>10</v>
       </c>
       <c r="C52" s="7">
+        <v>3</v>
+      </c>
+      <c r="D52" s="7">
+        <v>1599</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H52" s="7">
         <v>4</v>
       </c>
-      <c r="D52" s="7">
-        <v>3802</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H52" s="7">
-        <v>3</v>
-      </c>
       <c r="I52" s="7">
-        <v>1624</v>
+        <v>4026</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>266</v>
+        <v>105</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>14</v>
+        <v>261</v>
       </c>
       <c r="M52" s="7">
         <v>7</v>
       </c>
       <c r="N52" s="7">
-        <v>5426</v>
+        <v>5626</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>269</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,49 +4041,49 @@
         <v>18</v>
       </c>
       <c r="C53" s="7">
+        <v>2</v>
+      </c>
+      <c r="D53" s="7">
+        <v>1538</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H53" s="7">
         <v>3</v>
       </c>
-      <c r="D53" s="7">
-        <v>2215</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="H53" s="7">
-        <v>2</v>
-      </c>
       <c r="I53" s="7">
-        <v>1586</v>
+        <v>2317</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>140</v>
+        <v>264</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>11</v>
+        <v>265</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>156</v>
+        <v>266</v>
       </c>
       <c r="M53" s="7">
         <v>5</v>
       </c>
       <c r="N53" s="7">
-        <v>3800</v>
+        <v>3855</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>275</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,49 +4092,49 @@
         <v>24</v>
       </c>
       <c r="C54" s="7">
+        <v>0</v>
+      </c>
+      <c r="D54" s="7">
+        <v>0</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H54" s="7">
         <v>1</v>
       </c>
-      <c r="D54" s="7">
-        <v>928</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H54" s="7">
-        <v>0</v>
-      </c>
       <c r="I54" s="7">
-        <v>0</v>
+        <v>975</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="M54" s="7">
         <v>1</v>
       </c>
       <c r="N54" s="7">
-        <v>928</v>
+        <v>975</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>266</v>
+        <v>209</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>220</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,46 +4146,46 @@
         <v>1</v>
       </c>
       <c r="D55" s="7">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="H55" s="7">
         <v>1</v>
       </c>
       <c r="I55" s="7">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>223</v>
+        <v>274</v>
       </c>
       <c r="M55" s="7">
         <v>2</v>
       </c>
       <c r="N55" s="7">
-        <v>779</v>
+        <v>796</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,49 +4194,49 @@
         <v>31</v>
       </c>
       <c r="C56" s="7">
+        <v>2</v>
+      </c>
+      <c r="D56" s="7">
+        <v>1546</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H56" s="7">
         <v>4</v>
       </c>
-      <c r="D56" s="7">
-        <v>3885</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="H56" s="7">
-        <v>2</v>
-      </c>
       <c r="I56" s="7">
-        <v>1452</v>
+        <v>4430</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>11</v>
+        <v>277</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="M56" s="7">
         <v>6</v>
       </c>
       <c r="N56" s="7">
-        <v>5337</v>
+        <v>5976</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>211</v>
+        <v>279</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4254,49 +4245,49 @@
         <v>32</v>
       </c>
       <c r="C57" s="7">
+        <v>5</v>
+      </c>
+      <c r="D57" s="7">
+        <v>3408</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H57" s="7">
         <v>4</v>
       </c>
-      <c r="D57" s="7">
-        <v>3594</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H57" s="7">
-        <v>5</v>
-      </c>
       <c r="I57" s="7">
-        <v>3456</v>
+        <v>3720</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>286</v>
+        <v>199</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M57" s="7">
         <v>9</v>
       </c>
       <c r="N57" s="7">
-        <v>7050</v>
+        <v>7128</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,49 +4296,49 @@
         <v>39</v>
       </c>
       <c r="C58" s="7">
+        <v>9</v>
+      </c>
+      <c r="D58" s="7">
+        <v>8069</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H58" s="7">
         <v>11</v>
       </c>
-      <c r="D58" s="7">
-        <v>10190</v>
-      </c>
-      <c r="E58" s="7" t="s">
+      <c r="I58" s="7">
+        <v>11406</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K58" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F58" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G58" s="7" t="s">
+      <c r="L58" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="H58" s="7">
-        <v>9</v>
-      </c>
-      <c r="I58" s="7">
-        <v>8188</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L58" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M58" s="7">
         <v>20</v>
       </c>
       <c r="N58" s="7">
-        <v>18378</v>
+        <v>19475</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>294</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,202 +4347,202 @@
         <v>46</v>
       </c>
       <c r="C59" s="7">
+        <v>7</v>
+      </c>
+      <c r="D59" s="7">
+        <v>4080</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H59" s="7">
         <v>6</v>
       </c>
-      <c r="D59" s="7">
-        <v>3574</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G59" s="7" t="s">
+      <c r="I59" s="7">
+        <v>4050</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L59" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="H59" s="7">
-        <v>7</v>
-      </c>
-      <c r="I59" s="7">
-        <v>3975</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="K59" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L59" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M59" s="7">
         <v>13</v>
       </c>
       <c r="N59" s="7">
-        <v>7549</v>
+        <v>8130</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>297</v>
+        <v>205</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>298</v>
+        <v>216</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>299</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C60" s="7">
+        <v>23</v>
+      </c>
+      <c r="D60" s="7">
+        <v>15930</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H60" s="7">
         <v>32</v>
       </c>
-      <c r="D60" s="7">
-        <v>21973</v>
-      </c>
-      <c r="E60" s="7" t="s">
+      <c r="I60" s="7">
+        <v>23435</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K60" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="L60" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="H60" s="7">
-        <v>23</v>
-      </c>
-      <c r="I60" s="7">
-        <v>15800</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L60" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M60" s="7">
         <v>55</v>
       </c>
       <c r="N60" s="7">
-        <v>37773</v>
+        <v>39365</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C61" s="7">
+        <v>65</v>
+      </c>
+      <c r="D61" s="7">
+        <v>38289</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H61" s="7">
         <v>63</v>
       </c>
-      <c r="D61" s="7">
-        <v>41850</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F61" s="7" t="s">
+      <c r="I61" s="7">
+        <v>43105</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K61" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="L61" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="H61" s="7">
-        <v>65</v>
-      </c>
-      <c r="I61" s="7">
-        <v>40557</v>
-      </c>
-      <c r="J61" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L61" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M61" s="7">
         <v>128</v>
       </c>
       <c r="N61" s="7">
-        <v>82407</v>
+        <v>81394</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C62" s="7">
+        <v>351</v>
+      </c>
+      <c r="D62" s="7">
+        <v>256677</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H62" s="7">
         <v>382</v>
       </c>
-      <c r="D62" s="7">
-        <v>278687</v>
-      </c>
-      <c r="E62" s="7" t="s">
+      <c r="I62" s="7">
+        <v>288294</v>
+      </c>
+      <c r="J62" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="K62" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="L62" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="H62" s="7">
-        <v>351</v>
-      </c>
-      <c r="I62" s="7">
-        <v>238977</v>
-      </c>
-      <c r="J62" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L62" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="M62" s="7">
         <v>733</v>
       </c>
       <c r="N62" s="7">
-        <v>517663</v>
+        <v>544970</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,54 +4551,54 @@
         <v>3</v>
       </c>
       <c r="C63" s="7">
+        <v>468</v>
+      </c>
+      <c r="D63" s="7">
+        <v>331543</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H63" s="7">
         <v>511</v>
       </c>
-      <c r="D63" s="7">
-        <v>371077</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H63" s="7">
-        <v>468</v>
-      </c>
       <c r="I63" s="7">
-        <v>316014</v>
+        <v>386149</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M63" s="7">
         <v>979</v>
       </c>
       <c r="N63" s="7">
-        <v>687090</v>
+        <v>717691</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
